--- a/Monitoramento/outputs/Expansão MS/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/Monitoramento/outputs/Expansão MS/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumo" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monitoramento" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form 1 - Município" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form 2 - UVR" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form 3 - Empreendimento" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Resumo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Monitoramento" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Form 1 - Município" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Form 2 - UVR" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Form 3 - Empreendimento" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Form 1 - Município'!$A$1:$G$1</definedName>
